--- a/www.eia.gov/forecasts/steo/xls/Fig10.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig10.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Non-OPEC</t>
@@ -143,7 +143,7 @@
     <t>2018-Q4</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -341,64 +341,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.6036650000000066</c:v>
+                  <c:v>1.7050287870000034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73936005100000557</c:v>
+                  <c:v>1.0936962159999979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0602687909999986</c:v>
+                  <c:v>0.94953036100000077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3424135359999951</c:v>
+                  <c:v>1.3736163960000027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4948550089999912</c:v>
+                  <c:v>1.1847236379999941</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7612558029999974</c:v>
+                  <c:v>1.6498744099999954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1485869330000043</c:v>
+                  <c:v>2.0490802549999927</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6860687530000007</c:v>
+                  <c:v>0.93587426999999934</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85666535699999713</c:v>
+                  <c:v>1.303148053000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9003278800000061</c:v>
+                  <c:v>1.4921285479999966</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5152893300000017</c:v>
+                  <c:v>1.4255456570000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4642645899999991</c:v>
+                  <c:v>1.4140260439999963</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5194708080000083</c:v>
+                  <c:v>1.6233086969999988</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5840228209999907</c:v>
+                  <c:v>1.6362960499999986</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6091887689999993</c:v>
+                  <c:v>1.5351067309999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7678172490000037</c:v>
+                  <c:v>1.6807538219999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5657338509999903</c:v>
+                  <c:v>1.5946856310000044</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5210850070000106</c:v>
+                  <c:v>1.4570463390000015</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4867480590000071</c:v>
+                  <c:v>1.3241050940000036</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4703589900000082</c:v>
+                  <c:v>1.4560664360000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -423,64 +423,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.2845146319999969</c:v>
+                  <c:v>2.2963479660000061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5943899530000039</c:v>
+                  <c:v>2.6276163270000055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.31698643</c:v>
+                  <c:v>2.3625538209999988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7213631489999983</c:v>
+                  <c:v>2.7756153230000038</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5950095710000056</c:v>
+                  <c:v>2.6208240160000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6575916959999972</c:v>
+                  <c:v>1.6964840039999984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5521522369999943</c:v>
+                  <c:v>1.5712000629999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54387364300000485</c:v>
+                  <c:v>0.55557364299999534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.9794780000003129E-3</c:v>
+                  <c:v>5.4621284999996078E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.85592978900000105</c:v>
+                  <c:v>-0.78995396500000226</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.0420934369999983</c:v>
+                  <c:v>-1.016769754000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.58122915900000294</c:v>
+                  <c:v>-0.63079241199999814</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.56844349200000011</c:v>
+                  <c:v>-0.80149592899999789</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.84250081400000454</c:v>
+                  <c:v>0.62087964799999895</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88570286899999928</c:v>
+                  <c:v>0.75654017200000112</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.45951463600000153</c:v>
+                  <c:v>0.53322136900000316</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.59359440299999733</c:v>
+                  <c:v>1.0234128889999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.82276163899999943</c:v>
+                  <c:v>1.2078741750000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.62112727000000234</c:v>
+                  <c:v>1.0338007089999977</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.61079711699999706</c:v>
+                  <c:v>1.0095650709999973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,8 +495,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="647669344"/>
-        <c:axId val="647669904"/>
+        <c:axId val="629137184"/>
+        <c:axId val="629137744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -625,22 +625,22 @@
                   <c:v>-1.7022081729999954</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.2593906250000018</c:v>
+                  <c:v>7.2433125000000018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.648737705000002</c:v>
+                  <c:v>19.478737705</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5399999999999991</c:v>
+                  <c:v>7.5399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1485312499999978</c:v>
+                  <c:v>9.1485312499999978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8042968749999986</c:v>
+                  <c:v>4.8203749999999985</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.1700000000000017</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.671875</c:v>
@@ -666,8 +666,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="647670464"/>
-        <c:axId val="647671024"/>
+        <c:axId val="629138304"/>
+        <c:axId val="629138864"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -785,11 +785,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="647669344"/>
-        <c:axId val="647669904"/>
+        <c:axId val="629137184"/>
+        <c:axId val="629137744"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="647669344"/>
+        <c:axId val="629137184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,7 +805,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="647669904"/>
+        <c:crossAx val="629137744"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -815,7 +815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="647669904"/>
+        <c:axId val="629137744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -843,12 +843,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="647669344"/>
+        <c:crossAx val="629137184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="647670464"/>
+        <c:axId val="629138304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +865,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="647671024"/>
+        <c:crossAx val="629138864"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -874,7 +874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="647671024"/>
+        <c:axId val="629138864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -891,7 +891,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="647670464"/>
+        <c:crossAx val="629138304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1139,7 +1139,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1214,10 +1214,10 @@
             <v>2014-Q1</v>
           </cell>
           <cell r="G32">
-            <v>2.2845146319999969</v>
+            <v>2.2963479660000061</v>
           </cell>
           <cell r="H32">
-            <v>1.6036650000000066</v>
+            <v>1.7050287870000034</v>
           </cell>
           <cell r="I32">
             <v>4.3522983609999955</v>
@@ -1228,10 +1228,10 @@
             <v>2014-Q2</v>
           </cell>
           <cell r="G33">
-            <v>2.5943899530000039</v>
+            <v>2.6276163270000055</v>
           </cell>
           <cell r="H33">
-            <v>0.73936005100000557</v>
+            <v>1.0936962159999979</v>
           </cell>
           <cell r="I33">
             <v>9.2975729200000075</v>
@@ -1242,10 +1242,10 @@
             <v>2014-Q3</v>
           </cell>
           <cell r="G34">
-            <v>2.31698643</v>
+            <v>2.3625538209999988</v>
           </cell>
           <cell r="H34">
-            <v>1.0602687909999986</v>
+            <v>0.94953036100000077</v>
           </cell>
           <cell r="I34">
             <v>-7.9616406250000011</v>
@@ -1256,10 +1256,10 @@
             <v>2014-Q4</v>
           </cell>
           <cell r="G35">
-            <v>2.7213631489999983</v>
+            <v>2.7756153230000038</v>
           </cell>
           <cell r="H35">
-            <v>1.3424135359999951</v>
+            <v>1.3736163960000027</v>
           </cell>
           <cell r="I35">
             <v>-24.285578125000001</v>
@@ -1270,10 +1270,10 @@
             <v>2015-Q1</v>
           </cell>
           <cell r="G36">
-            <v>2.5950095710000056</v>
+            <v>2.6208240160000003</v>
           </cell>
           <cell r="H36">
-            <v>1.4948550089999912</v>
+            <v>1.1847236379999941</v>
           </cell>
           <cell r="I36">
             <v>-50.193803278999994</v>
@@ -1284,10 +1284,10 @@
             <v>2015-Q2</v>
           </cell>
           <cell r="G37">
-            <v>1.6575916959999972</v>
+            <v>1.6964840039999984</v>
           </cell>
           <cell r="H37">
-            <v>1.7612558029999974</v>
+            <v>1.6498744099999954</v>
           </cell>
           <cell r="I37">
             <v>-45.492206353000007</v>
@@ -1298,10 +1298,10 @@
             <v>2015-Q3</v>
           </cell>
           <cell r="G38">
-            <v>1.5521522369999943</v>
+            <v>1.5712000629999991</v>
           </cell>
           <cell r="H38">
-            <v>2.1485869330000043</v>
+            <v>2.0490802549999927</v>
           </cell>
           <cell r="I38">
             <v>-51.315432451999996</v>
@@ -1312,10 +1312,10 @@
             <v>2015-Q4</v>
           </cell>
           <cell r="G39">
-            <v>0.54387364300000485</v>
+            <v>0.55557364299999534</v>
           </cell>
           <cell r="H39">
-            <v>0.6860687530000007</v>
+            <v>0.93587426999999934</v>
           </cell>
           <cell r="I39">
             <v>-31.274656250000007</v>
@@ -1326,10 +1326,10 @@
             <v>2016-Q1</v>
           </cell>
           <cell r="G40">
-            <v>-2.9794780000003129E-3</v>
+            <v>5.4621284999996078E-2</v>
           </cell>
           <cell r="H40">
-            <v>0.85666535699999713</v>
+            <v>1.303148053000001</v>
           </cell>
           <cell r="I40">
             <v>-15.133032787000005</v>
@@ -1340,10 +1340,10 @@
             <v>2016-Q2</v>
           </cell>
           <cell r="G41">
-            <v>-0.85592978900000105</v>
+            <v>-0.78995396500000226</v>
           </cell>
           <cell r="H41">
-            <v>1.9003278800000061</v>
+            <v>1.4921285479999966</v>
           </cell>
           <cell r="I41">
             <v>-12.394460316999997</v>
@@ -1354,10 +1354,10 @@
             <v>2016-Q3</v>
           </cell>
           <cell r="G42">
-            <v>-1.0420934369999983</v>
+            <v>-1.016769754000002</v>
           </cell>
           <cell r="H42">
-            <v>1.5152893300000017</v>
+            <v>1.4255456570000007</v>
           </cell>
           <cell r="I42">
             <v>-1.7022081729999954</v>
@@ -1368,13 +1368,13 @@
             <v>2016-Q4</v>
           </cell>
           <cell r="G43">
-            <v>-0.58122915900000294</v>
+            <v>-0.63079241199999814</v>
           </cell>
           <cell r="H43">
-            <v>1.4642645899999991</v>
+            <v>1.4140260439999963</v>
           </cell>
           <cell r="I43">
-            <v>7.2593906250000018</v>
+            <v>7.2433125000000018</v>
           </cell>
         </row>
         <row r="44">
@@ -1382,13 +1382,13 @@
             <v>2017-Q1</v>
           </cell>
           <cell r="G44">
-            <v>-0.56844349200000011</v>
+            <v>-0.80149592899999789</v>
           </cell>
           <cell r="H44">
-            <v>1.5194708080000083</v>
+            <v>1.6233086969999988</v>
           </cell>
           <cell r="I44">
-            <v>18.648737705000002</v>
+            <v>19.478737705</v>
           </cell>
         </row>
         <row r="45">
@@ -1396,13 +1396,13 @@
             <v>2017-Q2</v>
           </cell>
           <cell r="G45">
-            <v>0.84250081400000454</v>
+            <v>0.62087964799999895</v>
           </cell>
           <cell r="H45">
-            <v>1.5840228209999907</v>
+            <v>1.6362960499999986</v>
           </cell>
           <cell r="I45">
-            <v>6.5399999999999991</v>
+            <v>7.5399999999999991</v>
           </cell>
         </row>
         <row r="46">
@@ -1410,13 +1410,13 @@
             <v>2017-Q3</v>
           </cell>
           <cell r="G46">
-            <v>0.88570286899999928</v>
+            <v>0.75654017200000112</v>
           </cell>
           <cell r="H46">
-            <v>1.6091887689999993</v>
+            <v>1.5351067309999991</v>
           </cell>
           <cell r="I46">
-            <v>8.1485312499999978</v>
+            <v>9.1485312499999978</v>
           </cell>
         </row>
         <row r="47">
@@ -1424,13 +1424,13 @@
             <v>2017-Q4</v>
           </cell>
           <cell r="G47">
-            <v>0.45951463600000153</v>
+            <v>0.53322136900000316</v>
           </cell>
           <cell r="H47">
-            <v>1.7678172490000037</v>
+            <v>1.6807538219999998</v>
           </cell>
           <cell r="I47">
-            <v>3.8042968749999986</v>
+            <v>4.8203749999999985</v>
           </cell>
         </row>
         <row r="48">
@@ -1438,13 +1438,13 @@
             <v>2018-Q1</v>
           </cell>
           <cell r="G48">
-            <v>0.59359440299999733</v>
+            <v>1.0234128889999994</v>
           </cell>
           <cell r="H48">
-            <v>1.5657338509999903</v>
+            <v>1.5946856310000044</v>
           </cell>
           <cell r="I48">
-            <v>1</v>
+            <v>1.1700000000000017</v>
           </cell>
         </row>
         <row r="49">
@@ -1452,10 +1452,10 @@
             <v>2018-Q2</v>
           </cell>
           <cell r="G49">
-            <v>0.82276163899999943</v>
+            <v>1.2078741750000006</v>
           </cell>
           <cell r="H49">
-            <v>1.5210850070000106</v>
+            <v>1.4570463390000015</v>
           </cell>
           <cell r="I49">
             <v>2.671875</v>
@@ -1466,10 +1466,10 @@
             <v>2018-Q3</v>
           </cell>
           <cell r="G50">
-            <v>0.62112727000000234</v>
+            <v>1.0338007089999977</v>
           </cell>
           <cell r="H50">
-            <v>1.4867480590000071</v>
+            <v>1.3241050940000036</v>
           </cell>
           <cell r="I50">
             <v>2.6666666670000012</v>
@@ -1480,10 +1480,10 @@
             <v>2018-Q4</v>
           </cell>
           <cell r="G51">
-            <v>0.61079711699999706</v>
+            <v>1.0095650709999973</v>
           </cell>
           <cell r="H51">
-            <v>1.4703589900000082</v>
+            <v>1.4560664360000004</v>
           </cell>
           <cell r="I51">
             <v>4.3125</v>
@@ -1895,10 +1895,10 @@
         <v>41275</v>
       </c>
       <c r="C28" s="12">
-        <v>52.247099059</v>
+        <v>53.536449724999997</v>
       </c>
       <c r="D28" s="12">
-        <v>90.310720476</v>
+        <v>91.167427353999997</v>
       </c>
       <c r="E28" s="12">
         <v>94.325800000000001</v>
@@ -1915,10 +1915,10 @@
         <v>41365</v>
       </c>
       <c r="C29" s="12">
-        <v>52.906622001999999</v>
+        <v>54.174579627999996</v>
       </c>
       <c r="D29" s="12">
-        <v>91.032033534999997</v>
+        <v>91.851533747000005</v>
       </c>
       <c r="E29" s="12">
         <v>94.049093749999997</v>
@@ -1935,10 +1935,10 @@
         <v>41456</v>
       </c>
       <c r="C30" s="12">
-        <v>53.805403824000003</v>
+        <v>55.061020433000003</v>
       </c>
       <c r="D30" s="12">
-        <v>92.058688145999994</v>
+        <v>93.036322092000006</v>
       </c>
       <c r="E30" s="12">
         <v>105.83074999999999</v>
@@ -1955,10 +1955,10 @@
         <v>41548</v>
       </c>
       <c r="C31" s="12">
-        <v>54.647129327999998</v>
+        <v>55.894061153999999</v>
       </c>
       <c r="D31" s="12">
-        <v>92.302874768999999</v>
+        <v>93.217316842000002</v>
       </c>
       <c r="E31" s="12">
         <v>97.496546875000007</v>
@@ -1975,21 +1975,21 @@
         <v>41640</v>
       </c>
       <c r="C32" s="12">
-        <v>54.531613690999997</v>
+        <v>55.832797691000003</v>
       </c>
       <c r="D32" s="12">
-        <v>91.914385476000007</v>
+        <v>92.872456141000001</v>
       </c>
       <c r="E32" s="12">
         <v>98.678098360999996</v>
       </c>
       <c r="G32" s="15">
         <f>C32-C28</f>
-        <v>2.2845146319999969</v>
+        <v>2.2963479660000061</v>
       </c>
       <c r="H32" s="15">
         <f>D32-D28</f>
-        <v>1.6036650000000066</v>
+        <v>1.7050287870000034</v>
       </c>
       <c r="I32" s="15">
         <f>E32-E28</f>
@@ -2004,21 +2004,21 @@
         <v>41730</v>
       </c>
       <c r="C33" s="12">
-        <v>55.501011955000003</v>
+        <v>56.802195955000002</v>
       </c>
       <c r="D33" s="12">
-        <v>91.771393586000002</v>
+        <v>92.945229963000003</v>
       </c>
       <c r="E33" s="12">
         <v>103.34666667</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" ref="G33:I51" si="0">C33-C29</f>
-        <v>2.5943899530000039</v>
+        <v>2.6276163270000055</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="0"/>
-        <v>0.73936005100000557</v>
+        <v>1.0936962159999979</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="0"/>
@@ -2033,21 +2033,21 @@
         <v>41821</v>
       </c>
       <c r="C34" s="12">
-        <v>56.122390254000003</v>
+        <v>57.423574254000002</v>
       </c>
       <c r="D34" s="12">
-        <v>93.118956936999993</v>
+        <v>93.985852453000007</v>
       </c>
       <c r="E34" s="12">
         <v>97.869109374999994</v>
       </c>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
-        <v>2.31698643</v>
+        <v>2.3625538209999988</v>
       </c>
       <c r="H34" s="15">
         <f t="shared" si="0"/>
-        <v>1.0602687909999986</v>
+        <v>0.94953036100000077</v>
       </c>
       <c r="I34" s="15">
         <f t="shared" si="0"/>
@@ -2065,21 +2065,21 @@
         <v>41913</v>
       </c>
       <c r="C35" s="12">
-        <v>57.368492476999997</v>
+        <v>58.669676477000003</v>
       </c>
       <c r="D35" s="12">
-        <v>93.645288304999994</v>
+        <v>94.590933238000005</v>
       </c>
       <c r="E35" s="12">
         <v>73.210968750000006</v>
       </c>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
-        <v>2.7213631489999983</v>
+        <v>2.7756153230000038</v>
       </c>
       <c r="H35" s="15">
         <f t="shared" si="0"/>
-        <v>1.3424135359999951</v>
+        <v>1.3736163960000027</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="0"/>
@@ -2094,21 +2094,21 @@
         <v>42005</v>
       </c>
       <c r="C36" s="12">
-        <v>57.126623262000003</v>
+        <v>58.453621707000003</v>
       </c>
       <c r="D36" s="12">
-        <v>93.409240484999998</v>
+        <v>94.057179778999995</v>
       </c>
       <c r="E36" s="12">
         <v>48.484295082000003</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
-        <v>2.5950095710000056</v>
+        <v>2.6208240160000003</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="0"/>
-        <v>1.4948550089999912</v>
+        <v>1.1847236379999941</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="0"/>
@@ -2123,21 +2123,21 @@
         <v>42095</v>
       </c>
       <c r="C37" s="12">
-        <v>57.158603651</v>
+        <v>58.498679959</v>
       </c>
       <c r="D37" s="12">
-        <v>93.532649388999999</v>
+        <v>94.595104372999998</v>
       </c>
       <c r="E37" s="12">
         <v>57.854460316999997</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="0"/>
-        <v>1.6575916959999972</v>
+        <v>1.6964840039999984</v>
       </c>
       <c r="H37" s="15">
         <f t="shared" si="0"/>
-        <v>1.7612558029999974</v>
+        <v>1.6498744099999954</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="0"/>
@@ -2152,21 +2152,21 @@
         <v>42186</v>
       </c>
       <c r="C38" s="12">
-        <v>57.674542490999997</v>
+        <v>58.994774317000001</v>
       </c>
       <c r="D38" s="12">
-        <v>95.267543869999997</v>
+        <v>96.034932707999999</v>
       </c>
       <c r="E38" s="12">
         <v>46.553676922999998</v>
       </c>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
-        <v>1.5521522369999943</v>
+        <v>1.5712000629999991</v>
       </c>
       <c r="H38" s="15">
         <f t="shared" si="0"/>
-        <v>2.1485869330000043</v>
+        <v>2.0490802549999927</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="0"/>
@@ -2181,21 +2181,21 @@
         <v>42278</v>
       </c>
       <c r="C39" s="12">
-        <v>57.912366120000002</v>
+        <v>59.225250119999998</v>
       </c>
       <c r="D39" s="12">
-        <v>94.331357057999995</v>
+        <v>95.526807508000005</v>
       </c>
       <c r="E39" s="12">
         <v>41.9363125</v>
       </c>
       <c r="G39" s="15">
         <f t="shared" si="0"/>
-        <v>0.54387364300000485</v>
+        <v>0.55557364299999534</v>
       </c>
       <c r="H39" s="15">
         <f t="shared" si="0"/>
-        <v>0.6860687530000007</v>
+        <v>0.93587426999999934</v>
       </c>
       <c r="I39" s="15">
         <f t="shared" si="0"/>
@@ -2210,21 +2210,21 @@
         <v>42370</v>
       </c>
       <c r="C40" s="12">
-        <v>57.123643784000002</v>
+        <v>58.508242992</v>
       </c>
       <c r="D40" s="12">
-        <v>94.265905841999995</v>
+        <v>95.360327831999996</v>
       </c>
       <c r="E40" s="12">
         <v>33.351262294999998</v>
       </c>
       <c r="G40" s="15">
         <f t="shared" si="0"/>
-        <v>-2.9794780000003129E-3</v>
+        <v>5.4621284999996078E-2</v>
       </c>
       <c r="H40" s="15">
         <f t="shared" si="0"/>
-        <v>0.85666535699999713</v>
+        <v>1.303148053000001</v>
       </c>
       <c r="I40" s="15">
         <f t="shared" si="0"/>
@@ -2239,21 +2239,21 @@
         <v>42461</v>
       </c>
       <c r="C41" s="12">
-        <v>56.302673861999999</v>
+        <v>57.708725993999998</v>
       </c>
       <c r="D41" s="12">
-        <v>95.432977269000006</v>
+        <v>96.087232920999995</v>
       </c>
       <c r="E41" s="12">
         <v>45.46</v>
       </c>
       <c r="G41" s="15">
         <f t="shared" si="0"/>
-        <v>-0.85592978900000105</v>
+        <v>-0.78995396500000226</v>
       </c>
       <c r="H41" s="15">
         <f t="shared" si="0"/>
-        <v>1.9003278800000061</v>
+        <v>1.4921285479999966</v>
       </c>
       <c r="I41" s="15">
         <f t="shared" si="0"/>
@@ -2268,21 +2268,21 @@
         <v>42552</v>
       </c>
       <c r="C42" s="12">
-        <v>56.632449053999999</v>
+        <v>57.978004562999999</v>
       </c>
       <c r="D42" s="12">
-        <v>96.782833199999999</v>
+        <v>97.460478365</v>
       </c>
       <c r="E42" s="12">
         <v>44.851468750000002</v>
       </c>
       <c r="G42" s="15">
         <f t="shared" si="0"/>
-        <v>-1.0420934369999983</v>
+        <v>-1.016769754000002</v>
       </c>
       <c r="H42" s="15">
         <f t="shared" si="0"/>
-        <v>1.5152893300000017</v>
+        <v>1.4255456570000007</v>
       </c>
       <c r="I42" s="15">
         <f t="shared" si="0"/>
@@ -2297,25 +2297,25 @@
         <v>42644</v>
       </c>
       <c r="C43" s="12">
-        <v>57.331136960999999</v>
+        <v>58.594457708</v>
       </c>
       <c r="D43" s="12">
-        <v>95.795621647999994</v>
+        <v>96.940833552000001</v>
       </c>
       <c r="E43" s="12">
-        <v>49.195703125000001</v>
+        <v>49.179625000000001</v>
       </c>
       <c r="G43" s="15">
         <f t="shared" si="0"/>
-        <v>-0.58122915900000294</v>
+        <v>-0.63079241199999814</v>
       </c>
       <c r="H43" s="15">
         <f t="shared" si="0"/>
-        <v>1.4642645899999991</v>
+        <v>1.4140260439999963</v>
       </c>
       <c r="I43" s="15">
         <f t="shared" si="0"/>
-        <v>7.2593906250000018</v>
+        <v>7.2433125000000018</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2326,25 +2326,25 @@
         <v>42736</v>
       </c>
       <c r="C44" s="12">
-        <v>56.555200292000002</v>
+        <v>57.706747063000002</v>
       </c>
       <c r="D44" s="12">
-        <v>95.785376650000003</v>
+        <v>96.983636528999995</v>
       </c>
       <c r="E44" s="12">
-        <v>52</v>
+        <v>52.83</v>
       </c>
       <c r="G44" s="15">
         <f t="shared" si="0"/>
-        <v>-0.56844349200000011</v>
+        <v>-0.80149592899999789</v>
       </c>
       <c r="H44" s="15">
         <f t="shared" si="0"/>
-        <v>1.5194708080000083</v>
+        <v>1.6233086969999988</v>
       </c>
       <c r="I44" s="15">
         <f t="shared" si="0"/>
-        <v>18.648737705000002</v>
+        <v>19.478737705</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2355,25 +2355,25 @@
         <v>42826</v>
       </c>
       <c r="C45" s="12">
-        <v>57.145174676000003</v>
+        <v>58.329605641999997</v>
       </c>
       <c r="D45" s="12">
-        <v>97.017000089999996</v>
+        <v>97.723528970999993</v>
       </c>
       <c r="E45" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="0"/>
-        <v>0.84250081400000454</v>
+        <v>0.62087964799999895</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="0"/>
-        <v>1.5840228209999907</v>
+        <v>1.6362960499999986</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="0"/>
-        <v>6.5399999999999991</v>
+        <v>7.5399999999999991</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2384,25 +2384,25 @@
         <v>42917</v>
       </c>
       <c r="C46" s="12">
-        <v>57.518151922999998</v>
+        <v>58.734544735</v>
       </c>
       <c r="D46" s="12">
-        <v>98.392021968999998</v>
+        <v>98.995585095999999</v>
       </c>
       <c r="E46" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="0"/>
-        <v>0.88570286899999928</v>
+        <v>0.75654017200000112</v>
       </c>
       <c r="H46" s="15">
         <f t="shared" si="0"/>
-        <v>1.6091887689999993</v>
+        <v>1.5351067309999991</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="0"/>
-        <v>8.1485312499999978</v>
+        <v>9.1485312499999978</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2413,25 +2413,25 @@
         <v>43009</v>
       </c>
       <c r="C47" s="12">
-        <v>57.790651597</v>
+        <v>59.127679077000003</v>
       </c>
       <c r="D47" s="12">
-        <v>97.563438896999997</v>
+        <v>98.621587374000001</v>
       </c>
       <c r="E47" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G47" s="15">
         <f t="shared" si="0"/>
-        <v>0.45951463600000153</v>
+        <v>0.53322136900000316</v>
       </c>
       <c r="H47" s="15">
         <f t="shared" si="0"/>
-        <v>1.7678172490000037</v>
+        <v>1.6807538219999998</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="0"/>
-        <v>3.8042968749999986</v>
+        <v>4.8203749999999985</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2442,25 +2442,25 @@
         <v>43101</v>
       </c>
       <c r="C48" s="12">
-        <v>57.148794694999999</v>
+        <v>58.730159952000001</v>
       </c>
       <c r="D48" s="12">
-        <v>97.351110500999994</v>
+        <v>98.578322159999999</v>
       </c>
       <c r="E48" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G48" s="15">
         <f t="shared" si="0"/>
-        <v>0.59359440299999733</v>
+        <v>1.0234128889999994</v>
       </c>
       <c r="H48" s="15">
         <f t="shared" si="0"/>
-        <v>1.5657338509999903</v>
+        <v>1.5946856310000044</v>
       </c>
       <c r="I48" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1700000000000017</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2471,21 +2471,21 @@
         <v>43191</v>
       </c>
       <c r="C49" s="12">
-        <v>57.967936315000003</v>
+        <v>59.537479816999998</v>
       </c>
       <c r="D49" s="12">
-        <v>98.538085097000007</v>
+        <v>99.180575309999995</v>
       </c>
       <c r="E49" s="12">
-        <v>54.671875</v>
+        <v>55.671875</v>
       </c>
       <c r="G49" s="15">
         <f t="shared" si="0"/>
-        <v>0.82276163899999943</v>
+        <v>1.2078741750000006</v>
       </c>
       <c r="H49" s="15">
         <f t="shared" si="0"/>
-        <v>1.5210850070000106</v>
+        <v>1.4570463390000015</v>
       </c>
       <c r="I49" s="15">
         <f t="shared" si="0"/>
@@ -2500,21 +2500,21 @@
         <v>43282</v>
       </c>
       <c r="C50" s="12">
-        <v>58.139279193</v>
+        <v>59.768345443999998</v>
       </c>
       <c r="D50" s="12">
-        <v>99.878770028000005</v>
+        <v>100.31969019</v>
       </c>
       <c r="E50" s="12">
-        <v>55.666666667000001</v>
+        <v>56.666666667000001</v>
       </c>
       <c r="G50" s="15">
         <f t="shared" si="0"/>
-        <v>0.62112727000000234</v>
+        <v>1.0338007089999977</v>
       </c>
       <c r="H50" s="15">
         <f t="shared" si="0"/>
-        <v>1.4867480590000071</v>
+        <v>1.3241050940000036</v>
       </c>
       <c r="I50" s="15">
         <f t="shared" si="0"/>
@@ -2529,22 +2529,22 @@
         <v>43374</v>
       </c>
       <c r="C51" s="17">
-        <v>58.401448713999997</v>
+        <v>60.137244148000001</v>
       </c>
       <c r="D51" s="17">
-        <v>99.033797887000006</v>
+        <v>100.07765381</v>
       </c>
       <c r="E51" s="17">
-        <v>57.3125</v>
+        <v>58.3125</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="18">
         <f t="shared" si="0"/>
-        <v>0.61079711699999706</v>
+        <v>1.0095650709999973</v>
       </c>
       <c r="H51" s="18">
         <f t="shared" si="0"/>
-        <v>1.4703589900000082</v>
+        <v>1.4560664360000004</v>
       </c>
       <c r="I51" s="18">
         <f t="shared" si="0"/>
